--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushk\git\repository\Selenium_Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632B632-C626-48ED-829B-043352E6D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33F257-1407-4466-B918-9788D6CB554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>vidya.bhadang@gmail.com</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -110,9 +107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -396,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,35 +405,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +434,6 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{3820A672-C218-40C1-972D-D29FB42287AE}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{72580614-606A-43FE-8DEF-BD678DB2FB1A}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{A40E0682-E42E-452E-B960-CF1462EB5555}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{38AB1409-A978-4B77-941F-3B45AA6C13EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushk\git\repository\Selenium_Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33F257-1407-4466-B918-9788D6CB554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE2FB5-86D3-41B7-8B2D-6DE3039BCEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>vidya.bhadang@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushk\git\repository\Selenium_Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE2FB5-86D3-41B7-8B2D-6DE3039BCEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD902A42-E053-419F-9A2B-881FE7FE9CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>vidya.bhadang@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -436,7 +433,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0E358D82-EA7E-4797-98B4-EAB5C067563B}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{3820A672-C218-40C1-972D-D29FB42287AE}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{72580614-606A-43FE-8DEF-BD678DB2FB1A}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{A40E0682-E42E-452E-B960-CF1462EB5555}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{ACA9338C-F67A-4C5F-8A74-8894C87E715C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
